--- a/ENG/data/working-experience.xlsx
+++ b/ENG/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603586C3-E195-470B-AA1A-EA40F2518C8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86CD8F7-3A0F-4F88-B366-5FCAA0210E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>what</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Supervision of research projects.</t>
+  </si>
+  <si>
+    <t>Co-supervision of Doctoral Students:  Francisco Javier Flores (Professional Doctorate in Counselling Psychology, University of East London, UK – 2016‑2018)</t>
   </si>
 </sst>
 </file>
@@ -440,22 +443,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="108.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="119.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -489,27 +492,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -526,94 +529,99 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2010</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>17</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
         <v>33</v>
       </c>
     </row>

--- a/ENG/data/working-experience.xlsx
+++ b/ENG/data/working-experience.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F86CD8F7-3A0F-4F88-B366-5FCAA0210E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06563D9D-65D8-476D-BB78-414DDB12CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,9 +49,6 @@
     <t>Stirling, UK</t>
   </si>
   <si>
-    <t>Supervision of an MSc research project (Evolutionary Psychology MSc).</t>
-  </si>
-  <si>
     <t>Cathedratic Professor</t>
   </si>
   <si>
@@ -76,55 +73,58 @@
     <t>Bogota, Colombia</t>
   </si>
   <si>
-    <t>Researcher at the Human Behaviour Analysis Lab (LACH).</t>
-  </si>
-  <si>
-    <t>Methodological and statistical advisor for postgraduate and faculty research projects.</t>
-  </si>
-  <si>
-    <t>Leader of the Cognitive Processes and Education research group (Procesos Cognoscitivos y Educación) (since 2016).</t>
-  </si>
-  <si>
-    <t>Organiser of the Nerd Café weekly conference series of the Faculty of Psychology (2016-2017).</t>
-  </si>
-  <si>
-    <t>Supervision of a variety of undergraduate research projects associated with psychology and biology.</t>
-  </si>
-  <si>
-    <t>Postdoctoral stay (2018-2019).</t>
-  </si>
-  <si>
-    <t>Co-supervision of Doctoral Students: Milena Vásquez-Amézquita (PhD in Neuroscience, University of Valencia, Spain – 2015-2018).</t>
-  </si>
-  <si>
     <t>Associate Professor</t>
   </si>
   <si>
     <t>Apr. 2019 - Present</t>
   </si>
   <si>
-    <t>Member of the Research Committee.</t>
-  </si>
-  <si>
-    <t>Member of the Advisory Committee on Research Ethics.</t>
-  </si>
-  <si>
-    <t>Teaching and supervision of research projects.</t>
-  </si>
-  <si>
-    <t>Marking and statistical advice to MSc students.</t>
-  </si>
-  <si>
     <t>Auxiliar Professor</t>
   </si>
   <si>
     <t>Universidad Pedagógica Nacional</t>
   </si>
   <si>
-    <t>Supervision of research projects.</t>
-  </si>
-  <si>
     <t>Co-supervision of Doctoral Students:  Francisco Javier Flores (Professional Doctorate in Counselling Psychology, University of East London, UK – 2016‑2018)</t>
+  </si>
+  <si>
+    <t>Researcher at the Human Behaviour Analysis Lab (LACH)</t>
+  </si>
+  <si>
+    <t>Leader of the Cognitive Processes and Education research group (Procesos Cognoscitivos y Educación) (since 2016)</t>
+  </si>
+  <si>
+    <t>Supervision of a variety of undergraduate research projects associated with psychology and biology</t>
+  </si>
+  <si>
+    <t>Member of the Research Committee</t>
+  </si>
+  <si>
+    <t>Member of the Advisory Committee on Research Ethics</t>
+  </si>
+  <si>
+    <t>Methodological and statistical advisor for postgraduate and faculty research projects</t>
+  </si>
+  <si>
+    <t>Organiser of the Nerd Café weekly conference series of the Faculty of Psychology (2016-2017)</t>
+  </si>
+  <si>
+    <t>Postdoctoral stay (2018-2019)</t>
+  </si>
+  <si>
+    <t>Co-supervision of Doctoral Students: Milena Vásquez-Amézquita (PhD in Neuroscience, University of Valencia, Spain – 2015-2018)</t>
+  </si>
+  <si>
+    <t>Teaching and supervision of research projects</t>
+  </si>
+  <si>
+    <t>Supervision of an MSc research project (Evolutionary Psychology MSc)</t>
+  </si>
+  <si>
+    <t>Marking and statistical advice to MSc students</t>
+  </si>
+  <si>
+    <t>Supervision of research projects</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,108 +477,108 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -595,34 +595,34 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>2010</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
